--- a/媒体コードマスタ.xlsx
+++ b/媒体コードマスタ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-marika.a.kitahara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-marika.a.kitahara\Desktop\python用\【Py】後方数値データ分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDEA4D02-D12E-4332-BA90-2AB2C9CB5EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE556F7-101A-47F4-8F4A-6EF2DDE928FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D062F9A2-5310-406C-9C19-41F07FCA6DF9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="353">
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
@@ -550,6 +550,586 @@
   </si>
   <si>
     <t>エイチームライフデザイン</t>
+  </si>
+  <si>
+    <t>sg7v4</t>
+  </si>
+  <si>
+    <t>sg70v</t>
+  </si>
+  <si>
+    <t>sg7r1</t>
+  </si>
+  <si>
+    <t>sg7af</t>
+  </si>
+  <si>
+    <t>sg71k</t>
+  </si>
+  <si>
+    <t>sg7pb</t>
+  </si>
+  <si>
+    <t>sg7u4</t>
+  </si>
+  <si>
+    <t>sg7om</t>
+  </si>
+  <si>
+    <t>sg7o8</t>
+  </si>
+  <si>
+    <t>sg7g7</t>
+  </si>
+  <si>
+    <t>sg796</t>
+  </si>
+  <si>
+    <t>sg73q</t>
+  </si>
+  <si>
+    <t>sg7xd</t>
+  </si>
+  <si>
+    <t>sg7w9</t>
+  </si>
+  <si>
+    <t>sg7dy</t>
+  </si>
+  <si>
+    <t>sg797</t>
+  </si>
+  <si>
+    <t>sg7po</t>
+  </si>
+  <si>
+    <t>sg782</t>
+  </si>
+  <si>
+    <t>sg71v</t>
+  </si>
+  <si>
+    <t>sg7q2</t>
+  </si>
+  <si>
+    <t>sg7vv</t>
+  </si>
+  <si>
+    <t>sg7qc</t>
+  </si>
+  <si>
+    <t>sg7p2</t>
+  </si>
+  <si>
+    <t>sg7rf</t>
+  </si>
+  <si>
+    <t>sg7ab</t>
+  </si>
+  <si>
+    <t>sg75v</t>
+  </si>
+  <si>
+    <t>sg77r</t>
+  </si>
+  <si>
+    <t>sg7pg</t>
+  </si>
+  <si>
+    <t>sg75z</t>
+  </si>
+  <si>
+    <t>sg7qb</t>
+  </si>
+  <si>
+    <t>sg7c1</t>
+  </si>
+  <si>
+    <t>sg7n2</t>
+  </si>
+  <si>
+    <t>sg7of</t>
+  </si>
+  <si>
+    <t>sg7sd</t>
+  </si>
+  <si>
+    <t>sg7r7</t>
+  </si>
+  <si>
+    <t>sg72y</t>
+  </si>
+  <si>
+    <t>sg7e6</t>
+  </si>
+  <si>
+    <t>sg74e</t>
+  </si>
+  <si>
+    <t>sg7a1</t>
+  </si>
+  <si>
+    <t>sg7d6</t>
+  </si>
+  <si>
+    <t>sg7g9</t>
+  </si>
+  <si>
+    <t>sg792</t>
+  </si>
+  <si>
+    <t>sg7yo</t>
+  </si>
+  <si>
+    <t>sg7ox</t>
+  </si>
+  <si>
+    <t>sg7jb</t>
+  </si>
+  <si>
+    <t>sg7mm</t>
+  </si>
+  <si>
+    <t>sg7ef</t>
+  </si>
+  <si>
+    <t>sg7fw</t>
+  </si>
+  <si>
+    <t>sg7t6</t>
+  </si>
+  <si>
+    <t>Zealse</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>予備（利息はどのくらい？プッシュ）</t>
+  </si>
+  <si>
+    <t>予備（カード引き落としプッシュ）</t>
+  </si>
+  <si>
+    <t>予備（返済の見直し訴求⚠金利半額CP訴求あり）</t>
+  </si>
+  <si>
+    <t>予備（カードローンメリットプッシュ）</t>
+  </si>
+  <si>
+    <t>予備（スマホで簡単！）</t>
+  </si>
+  <si>
+    <t>予備</t>
+  </si>
+  <si>
+    <t>通常配信（初期会話）</t>
+  </si>
+  <si>
+    <t>アイテムリスト（WEB完結）</t>
+  </si>
+  <si>
+    <t>アイテムリスト（最短即日）</t>
+  </si>
+  <si>
+    <t>アイテムリスト（審査優遇）</t>
+  </si>
+  <si>
+    <t>リッチメニュー</t>
+  </si>
+  <si>
+    <t>デフォルトメッセージ</t>
+  </si>
+  <si>
+    <t>時間制限プッシュ</t>
+  </si>
+  <si>
+    <t>RM経由の再診断、トラックプッシュ配信(再診断)</t>
+  </si>
+  <si>
+    <t>【トラック/30分後】リマインドプッシュ</t>
+  </si>
+  <si>
+    <t>【1日後】できるだけおトクにかりたい</t>
+  </si>
+  <si>
+    <t>【2日後】申し込みのステップ</t>
+  </si>
+  <si>
+    <t>【3日後】審査に通るか不安な方必見プッシュ</t>
+  </si>
+  <si>
+    <t>【4日後】かんたんにお借入・ご返済可能プッシュ</t>
+  </si>
+  <si>
+    <t>【5日後】楽天銀行のアプリ案内プッシュ</t>
+  </si>
+  <si>
+    <t>【6日後】利用限度額プッシュ</t>
+  </si>
+  <si>
+    <t>【7日後】自身のペースに合った計画的な返済プランプッシュ</t>
+  </si>
+  <si>
+    <t>【8日後】在籍確認</t>
+  </si>
+  <si>
+    <t>【9日後】カードローンって何？ 特徴をご紹介</t>
+  </si>
+  <si>
+    <t>SPOT配信（アプリ案内）</t>
+  </si>
+  <si>
+    <t>SPOT配信（カードローンの特徴）</t>
+  </si>
+  <si>
+    <t>SPOT配信（かんたんに借入・返済</t>
+  </si>
+  <si>
+    <t>SPOT配信（できるだけおトクにかりたい）</t>
+  </si>
+  <si>
+    <t>SPOT配信（改修リマインドプッシュ）</t>
+  </si>
+  <si>
+    <t>SPOT配信(楽天メリット)</t>
+  </si>
+  <si>
+    <t>SPOT配信(給料日)</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP）</t>
+  </si>
+  <si>
+    <t>SPOT配信（計画的な返済）</t>
+  </si>
+  <si>
+    <t>SPOT配信(再診断)</t>
+  </si>
+  <si>
+    <t>SPOT配信（在籍確認）</t>
+  </si>
+  <si>
+    <t>SPOT配信（審査に通過するか）</t>
+  </si>
+  <si>
+    <t>SPOT配信(審査優遇)</t>
+  </si>
+  <si>
+    <t>SPOT配信(申込ステップ)</t>
+  </si>
+  <si>
+    <t>SPOT配信（不安払拭４パターン）</t>
+  </si>
+  <si>
+    <t>SPOT配信（曜日プッシュ）</t>
+  </si>
+  <si>
+    <t>SPOT配信（利用限度額）</t>
+  </si>
+  <si>
+    <t>SPOT配信（衣替えプッシュ）</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP_カウントダウン1日前</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP_カウントダウン3日前）</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP_カウントダウン7日前）</t>
+  </si>
+  <si>
+    <t>sglca</t>
+  </si>
+  <si>
+    <t>sglke</t>
+  </si>
+  <si>
+    <t>sgl3j</t>
+  </si>
+  <si>
+    <t>sglbt</t>
+  </si>
+  <si>
+    <t>sglsm</t>
+  </si>
+  <si>
+    <t>sgl25</t>
+  </si>
+  <si>
+    <t>sglc4</t>
+  </si>
+  <si>
+    <t>sgled</t>
+  </si>
+  <si>
+    <t>sgl3z</t>
+  </si>
+  <si>
+    <t>sgltb</t>
+  </si>
+  <si>
+    <t>sglbn</t>
+  </si>
+  <si>
+    <t>sglv0</t>
+  </si>
+  <si>
+    <t>sgla8</t>
+  </si>
+  <si>
+    <t>sglwa</t>
+  </si>
+  <si>
+    <t>sgl0a</t>
+  </si>
+  <si>
+    <t>sgl8e</t>
+  </si>
+  <si>
+    <t>sgltc</t>
+  </si>
+  <si>
+    <t>sgl5u</t>
+  </si>
+  <si>
+    <t>sgltn</t>
+  </si>
+  <si>
+    <t>sglws</t>
+  </si>
+  <si>
+    <t>sgl41</t>
+  </si>
+  <si>
+    <t>sglkt</t>
+  </si>
+  <si>
+    <t>sglg5</t>
+  </si>
+  <si>
+    <t>sglvd</t>
+  </si>
+  <si>
+    <t>sgl3q</t>
+  </si>
+  <si>
+    <t>sgl50</t>
+  </si>
+  <si>
+    <t>sgl21</t>
+  </si>
+  <si>
+    <t>sgl89</t>
+  </si>
+  <si>
+    <t>sgls9</t>
+  </si>
+  <si>
+    <t>sglr3</t>
+  </si>
+  <si>
+    <t>sglfh</t>
+  </si>
+  <si>
+    <t>sgl4z</t>
+  </si>
+  <si>
+    <t>sglft</t>
+  </si>
+  <si>
+    <t>sgliy</t>
+  </si>
+  <si>
+    <t>sglq7</t>
+  </si>
+  <si>
+    <t>sglge</t>
+  </si>
+  <si>
+    <t>sgl3a</t>
+  </si>
+  <si>
+    <t>sglhj</t>
+  </si>
+  <si>
+    <t>sglsh</t>
+  </si>
+  <si>
+    <t>sglr6</t>
+  </si>
+  <si>
+    <t>sglp6</t>
+  </si>
+  <si>
+    <t>sglts</t>
+  </si>
+  <si>
+    <t>sgl4j</t>
+  </si>
+  <si>
+    <t>sgl49</t>
+  </si>
+  <si>
+    <t>sglyx</t>
+  </si>
+  <si>
+    <t>sglv2</t>
+  </si>
+  <si>
+    <t>sgloi</t>
+  </si>
+  <si>
+    <t>sglqo</t>
+  </si>
+  <si>
+    <t>sgl7s</t>
+  </si>
+  <si>
+    <t>sgp89</t>
+  </si>
+  <si>
+    <t>sgput</t>
+  </si>
+  <si>
+    <t>sgpp9</t>
+  </si>
+  <si>
+    <t>sgpff</t>
+  </si>
+  <si>
+    <t>sgps2</t>
+  </si>
+  <si>
+    <t>sgpdu</t>
+  </si>
+  <si>
+    <t>sgphr</t>
+  </si>
+  <si>
+    <t>sgps9</t>
+  </si>
+  <si>
+    <t>sgpwm</t>
+  </si>
+  <si>
+    <t>sgp9z</t>
+  </si>
+  <si>
+    <t>sgp1q</t>
+  </si>
+  <si>
+    <t>sgpe1</t>
+  </si>
+  <si>
+    <t>sgpz8</t>
+  </si>
+  <si>
+    <t>sgppj</t>
+  </si>
+  <si>
+    <t>sgpze</t>
+  </si>
+  <si>
+    <t>sgp90</t>
+  </si>
+  <si>
+    <t>sgptz</t>
+  </si>
+  <si>
+    <t>sgpgq</t>
+  </si>
+  <si>
+    <t>sgpix</t>
+  </si>
+  <si>
+    <t>sgps1</t>
+  </si>
+  <si>
+    <t>sgp68</t>
+  </si>
+  <si>
+    <t>sgp79</t>
+  </si>
+  <si>
+    <t>sgp4f</t>
+  </si>
+  <si>
+    <t>sgptk</t>
+  </si>
+  <si>
+    <t>sgp6y</t>
+  </si>
+  <si>
+    <t>sgpea</t>
+  </si>
+  <si>
+    <t>sgpfq</t>
+  </si>
+  <si>
+    <t>sgpt7</t>
+  </si>
+  <si>
+    <t>sgpcu</t>
+  </si>
+  <si>
+    <t>sgpr2</t>
+  </si>
+  <si>
+    <t>sgprt</t>
+  </si>
+  <si>
+    <t>sgpd7</t>
+  </si>
+  <si>
+    <t>sgp8k</t>
+  </si>
+  <si>
+    <t>sgpbc</t>
+  </si>
+  <si>
+    <t>sgp4h</t>
+  </si>
+  <si>
+    <t>sgpzy</t>
+  </si>
+  <si>
+    <t>sgpzi</t>
+  </si>
+  <si>
+    <t>sgphc</t>
+  </si>
+  <si>
+    <t>sgpwn</t>
+  </si>
+  <si>
+    <t>sgpab</t>
+  </si>
+  <si>
+    <t>sgpai</t>
+  </si>
+  <si>
+    <t>sgpov</t>
+  </si>
+  <si>
+    <t>sgpo8</t>
+  </si>
+  <si>
+    <t>sgpq6</t>
+  </si>
+  <si>
+    <t>sgpxk</t>
+  </si>
+  <si>
+    <t>sgp3r</t>
+  </si>
+  <si>
+    <t>sgpdq</t>
+  </si>
+  <si>
+    <t>sgpce</t>
+  </si>
+  <si>
+    <t>sgp4k</t>
   </si>
 </sst>
 </file>
@@ -992,19 +1572,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816F8E8-C22F-4E38-8E96-70A9C06BD1EB}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="A46:E94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,9 +1603,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>148</v>
       </c>
@@ -1038,9 +1620,8 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
@@ -1056,9 +1637,8 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -1074,9 +1654,8 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>151</v>
       </c>
@@ -1092,9 +1671,8 @@
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>152</v>
       </c>
@@ -1110,9 +1688,8 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>153</v>
       </c>
@@ -1128,9 +1705,8 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>154</v>
       </c>
@@ -1146,9 +1722,8 @@
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>155</v>
       </c>
@@ -1164,9 +1739,8 @@
       <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1182,9 +1756,8 @@
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>156</v>
       </c>
@@ -1200,9 +1773,8 @@
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1218,9 +1790,8 @@
       <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>157</v>
       </c>
@@ -1236,9 +1807,8 @@
       <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1254,9 +1824,8 @@
       <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -1272,9 +1841,8 @@
       <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1290,9 +1858,8 @@
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -1308,9 +1875,8 @@
       <c r="E17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1326,9 +1892,8 @@
       <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1344,9 +1909,8 @@
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -1362,9 +1926,8 @@
       <c r="E20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
@@ -1380,9 +1943,8 @@
       <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
@@ -1398,9 +1960,8 @@
       <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -1416,9 +1977,8 @@
       <c r="E23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>76</v>
       </c>
@@ -1434,9 +1994,8 @@
       <c r="E24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
@@ -1452,9 +2011,8 @@
       <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1470,9 +2028,8 @@
       <c r="E26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -1488,9 +2045,8 @@
       <c r="E27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -1506,9 +2062,8 @@
       <c r="E28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
@@ -1524,9 +2079,8 @@
       <c r="E29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>159</v>
       </c>
@@ -1540,9 +2094,8 @@
       <c r="E30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
@@ -1558,9 +2111,8 @@
       <c r="E31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
@@ -1576,9 +2128,8 @@
       <c r="E32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -1594,9 +2145,8 @@
       <c r="E33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>108</v>
       </c>
@@ -1612,9 +2162,8 @@
       <c r="E34" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>112</v>
       </c>
@@ -1630,9 +2179,8 @@
       <c r="E35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -1648,9 +2196,8 @@
       <c r="E36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>120</v>
       </c>
@@ -1666,9 +2213,8 @@
       <c r="E37" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
@@ -1684,9 +2230,8 @@
       <c r="E38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>128</v>
       </c>
@@ -1702,9 +2247,8 @@
       <c r="E39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>130</v>
       </c>
@@ -1720,9 +2264,8 @@
       <c r="E40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>133</v>
       </c>
@@ -1738,9 +2281,8 @@
       <c r="E41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>136</v>
       </c>
@@ -1756,9 +2298,8 @@
       <c r="E42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>139</v>
       </c>
@@ -1774,9 +2315,8 @@
       <c r="E43" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>142</v>
       </c>
@@ -1792,9 +2332,8 @@
       <c r="E44" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>145</v>
       </c>
@@ -1810,7 +2349,839 @@
       <c r="E45" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>352</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/媒体コードマスタ.xlsx
+++ b/媒体コードマスタ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-marika.a.kitahara\Desktop\python用\【Py】後方数値データ分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE556F7-101A-47F4-8F4A-6EF2DDE928FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177E85B-7B5F-4103-9070-97C25E91BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D062F9A2-5310-406C-9C19-41F07FCA6DF9}"/>
+    <workbookView xWindow="5760" yWindow="3768" windowWidth="17280" windowHeight="9912" xr2:uid="{D062F9A2-5310-406C-9C19-41F07FCA6DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -699,437 +702,437 @@
     <t>sg7t6</t>
   </si>
   <si>
-    <t>Zealse</t>
+    <t>予備（利息はどのくらい？プッシュ）</t>
+  </si>
+  <si>
+    <t>予備（カード引き落としプッシュ）</t>
+  </si>
+  <si>
+    <t>予備（返済の見直し訴求⚠金利半額CP訴求あり）</t>
+  </si>
+  <si>
+    <t>予備（カードローンメリットプッシュ）</t>
+  </si>
+  <si>
+    <t>予備（スマホで簡単！）</t>
+  </si>
+  <si>
+    <t>予備</t>
+  </si>
+  <si>
+    <t>通常配信（初期会話）</t>
+  </si>
+  <si>
+    <t>アイテムリスト（WEB完結）</t>
+  </si>
+  <si>
+    <t>アイテムリスト（最短即日）</t>
+  </si>
+  <si>
+    <t>アイテムリスト（審査優遇）</t>
+  </si>
+  <si>
+    <t>リッチメニュー</t>
+  </si>
+  <si>
+    <t>デフォルトメッセージ</t>
+  </si>
+  <si>
+    <t>時間制限プッシュ</t>
+  </si>
+  <si>
+    <t>RM経由の再診断、トラックプッシュ配信(再診断)</t>
+  </si>
+  <si>
+    <t>【トラック/30分後】リマインドプッシュ</t>
+  </si>
+  <si>
+    <t>【1日後】できるだけおトクにかりたい</t>
+  </si>
+  <si>
+    <t>【2日後】申し込みのステップ</t>
+  </si>
+  <si>
+    <t>【3日後】審査に通るか不安な方必見プッシュ</t>
+  </si>
+  <si>
+    <t>【4日後】かんたんにお借入・ご返済可能プッシュ</t>
+  </si>
+  <si>
+    <t>【5日後】楽天銀行のアプリ案内プッシュ</t>
+  </si>
+  <si>
+    <t>【6日後】利用限度額プッシュ</t>
+  </si>
+  <si>
+    <t>【7日後】自身のペースに合った計画的な返済プランプッシュ</t>
+  </si>
+  <si>
+    <t>【8日後】在籍確認</t>
+  </si>
+  <si>
+    <t>【9日後】カードローンって何？ 特徴をご紹介</t>
+  </si>
+  <si>
+    <t>SPOT配信（アプリ案内）</t>
+  </si>
+  <si>
+    <t>SPOT配信（カードローンの特徴）</t>
+  </si>
+  <si>
+    <t>SPOT配信（かんたんに借入・返済</t>
+  </si>
+  <si>
+    <t>SPOT配信（できるだけおトクにかりたい）</t>
+  </si>
+  <si>
+    <t>SPOT配信（改修リマインドプッシュ）</t>
+  </si>
+  <si>
+    <t>SPOT配信(楽天メリット)</t>
+  </si>
+  <si>
+    <t>SPOT配信(給料日)</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP）</t>
+  </si>
+  <si>
+    <t>SPOT配信（計画的な返済）</t>
+  </si>
+  <si>
+    <t>SPOT配信(再診断)</t>
+  </si>
+  <si>
+    <t>SPOT配信（在籍確認）</t>
+  </si>
+  <si>
+    <t>SPOT配信（審査に通過するか）</t>
+  </si>
+  <si>
+    <t>SPOT配信(審査優遇)</t>
+  </si>
+  <si>
+    <t>SPOT配信(申込ステップ)</t>
+  </si>
+  <si>
+    <t>SPOT配信（不安払拭４パターン）</t>
+  </si>
+  <si>
+    <t>SPOT配信（曜日プッシュ）</t>
+  </si>
+  <si>
+    <t>SPOT配信（利用限度額）</t>
+  </si>
+  <si>
+    <t>SPOT配信（衣替えプッシュ）</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP_カウントダウン1日前</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP_カウントダウン3日前）</t>
+  </si>
+  <si>
+    <t>SPOT配信（現金CP_カウントダウン7日前）</t>
+  </si>
+  <si>
+    <t>sglca</t>
+  </si>
+  <si>
+    <t>sglke</t>
+  </si>
+  <si>
+    <t>sgl3j</t>
+  </si>
+  <si>
+    <t>sglbt</t>
+  </si>
+  <si>
+    <t>sglsm</t>
+  </si>
+  <si>
+    <t>sgl25</t>
+  </si>
+  <si>
+    <t>sglc4</t>
+  </si>
+  <si>
+    <t>sgled</t>
+  </si>
+  <si>
+    <t>sgl3z</t>
+  </si>
+  <si>
+    <t>sgltb</t>
+  </si>
+  <si>
+    <t>sglbn</t>
+  </si>
+  <si>
+    <t>sglv0</t>
+  </si>
+  <si>
+    <t>sgla8</t>
+  </si>
+  <si>
+    <t>sglwa</t>
+  </si>
+  <si>
+    <t>sgl0a</t>
+  </si>
+  <si>
+    <t>sgl8e</t>
+  </si>
+  <si>
+    <t>sgltc</t>
+  </si>
+  <si>
+    <t>sgl5u</t>
+  </si>
+  <si>
+    <t>sgltn</t>
+  </si>
+  <si>
+    <t>sglws</t>
+  </si>
+  <si>
+    <t>sgl41</t>
+  </si>
+  <si>
+    <t>sglkt</t>
+  </si>
+  <si>
+    <t>sglg5</t>
+  </si>
+  <si>
+    <t>sglvd</t>
+  </si>
+  <si>
+    <t>sgl3q</t>
+  </si>
+  <si>
+    <t>sgl50</t>
+  </si>
+  <si>
+    <t>sgl21</t>
+  </si>
+  <si>
+    <t>sgl89</t>
+  </si>
+  <si>
+    <t>sgls9</t>
+  </si>
+  <si>
+    <t>sglr3</t>
+  </si>
+  <si>
+    <t>sglfh</t>
+  </si>
+  <si>
+    <t>sgl4z</t>
+  </si>
+  <si>
+    <t>sglft</t>
+  </si>
+  <si>
+    <t>sgliy</t>
+  </si>
+  <si>
+    <t>sglq7</t>
+  </si>
+  <si>
+    <t>sglge</t>
+  </si>
+  <si>
+    <t>sgl3a</t>
+  </si>
+  <si>
+    <t>sglhj</t>
+  </si>
+  <si>
+    <t>sglsh</t>
+  </si>
+  <si>
+    <t>sglr6</t>
+  </si>
+  <si>
+    <t>sglp6</t>
+  </si>
+  <si>
+    <t>sglts</t>
+  </si>
+  <si>
+    <t>sgl4j</t>
+  </si>
+  <si>
+    <t>sgl49</t>
+  </si>
+  <si>
+    <t>sglyx</t>
+  </si>
+  <si>
+    <t>sglv2</t>
+  </si>
+  <si>
+    <t>sgloi</t>
+  </si>
+  <si>
+    <t>sglqo</t>
+  </si>
+  <si>
+    <t>sgl7s</t>
+  </si>
+  <si>
+    <t>sgp89</t>
+  </si>
+  <si>
+    <t>sgput</t>
+  </si>
+  <si>
+    <t>sgpp9</t>
+  </si>
+  <si>
+    <t>sgpff</t>
+  </si>
+  <si>
+    <t>sgps2</t>
+  </si>
+  <si>
+    <t>sgpdu</t>
+  </si>
+  <si>
+    <t>sgphr</t>
+  </si>
+  <si>
+    <t>sgps9</t>
+  </si>
+  <si>
+    <t>sgpwm</t>
+  </si>
+  <si>
+    <t>sgp9z</t>
+  </si>
+  <si>
+    <t>sgp1q</t>
+  </si>
+  <si>
+    <t>sgpe1</t>
+  </si>
+  <si>
+    <t>sgpz8</t>
+  </si>
+  <si>
+    <t>sgppj</t>
+  </si>
+  <si>
+    <t>sgpze</t>
+  </si>
+  <si>
+    <t>sgp90</t>
+  </si>
+  <si>
+    <t>sgptz</t>
+  </si>
+  <si>
+    <t>sgpgq</t>
+  </si>
+  <si>
+    <t>sgpix</t>
+  </si>
+  <si>
+    <t>sgps1</t>
+  </si>
+  <si>
+    <t>sgp68</t>
+  </si>
+  <si>
+    <t>sgp79</t>
+  </si>
+  <si>
+    <t>sgp4f</t>
+  </si>
+  <si>
+    <t>sgptk</t>
+  </si>
+  <si>
+    <t>sgp6y</t>
+  </si>
+  <si>
+    <t>sgpea</t>
+  </si>
+  <si>
+    <t>sgpfq</t>
+  </si>
+  <si>
+    <t>sgpt7</t>
+  </si>
+  <si>
+    <t>sgpcu</t>
+  </si>
+  <si>
+    <t>sgpr2</t>
+  </si>
+  <si>
+    <t>sgprt</t>
+  </si>
+  <si>
+    <t>sgpd7</t>
+  </si>
+  <si>
+    <t>sgp8k</t>
+  </si>
+  <si>
+    <t>sgpbc</t>
+  </si>
+  <si>
+    <t>sgp4h</t>
+  </si>
+  <si>
+    <t>sgpzy</t>
+  </si>
+  <si>
+    <t>sgpzi</t>
+  </si>
+  <si>
+    <t>sgphc</t>
+  </si>
+  <si>
+    <t>sgpwn</t>
+  </si>
+  <si>
+    <t>sgpab</t>
+  </si>
+  <si>
+    <t>sgpai</t>
+  </si>
+  <si>
+    <t>sgpov</t>
+  </si>
+  <si>
+    <t>sgpo8</t>
+  </si>
+  <si>
+    <t>sgpq6</t>
+  </si>
+  <si>
+    <t>sgpxk</t>
+  </si>
+  <si>
+    <t>sgp3r</t>
+  </si>
+  <si>
+    <t>sgpdq</t>
+  </si>
+  <si>
+    <t>sgpce</t>
+  </si>
+  <si>
+    <t>sgp4k</t>
+  </si>
+  <si>
+    <t>Zeals</t>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>予備（利息はどのくらい？プッシュ）</t>
-  </si>
-  <si>
-    <t>予備（カード引き落としプッシュ）</t>
-  </si>
-  <si>
-    <t>予備（返済の見直し訴求⚠金利半額CP訴求あり）</t>
-  </si>
-  <si>
-    <t>予備（カードローンメリットプッシュ）</t>
-  </si>
-  <si>
-    <t>予備（スマホで簡単！）</t>
-  </si>
-  <si>
-    <t>予備</t>
-  </si>
-  <si>
-    <t>通常配信（初期会話）</t>
-  </si>
-  <si>
-    <t>アイテムリスト（WEB完結）</t>
-  </si>
-  <si>
-    <t>アイテムリスト（最短即日）</t>
-  </si>
-  <si>
-    <t>アイテムリスト（審査優遇）</t>
-  </si>
-  <si>
-    <t>リッチメニュー</t>
-  </si>
-  <si>
-    <t>デフォルトメッセージ</t>
-  </si>
-  <si>
-    <t>時間制限プッシュ</t>
-  </si>
-  <si>
-    <t>RM経由の再診断、トラックプッシュ配信(再診断)</t>
-  </si>
-  <si>
-    <t>【トラック/30分後】リマインドプッシュ</t>
-  </si>
-  <si>
-    <t>【1日後】できるだけおトクにかりたい</t>
-  </si>
-  <si>
-    <t>【2日後】申し込みのステップ</t>
-  </si>
-  <si>
-    <t>【3日後】審査に通るか不安な方必見プッシュ</t>
-  </si>
-  <si>
-    <t>【4日後】かんたんにお借入・ご返済可能プッシュ</t>
-  </si>
-  <si>
-    <t>【5日後】楽天銀行のアプリ案内プッシュ</t>
-  </si>
-  <si>
-    <t>【6日後】利用限度額プッシュ</t>
-  </si>
-  <si>
-    <t>【7日後】自身のペースに合った計画的な返済プランプッシュ</t>
-  </si>
-  <si>
-    <t>【8日後】在籍確認</t>
-  </si>
-  <si>
-    <t>【9日後】カードローンって何？ 特徴をご紹介</t>
-  </si>
-  <si>
-    <t>SPOT配信（アプリ案内）</t>
-  </si>
-  <si>
-    <t>SPOT配信（カードローンの特徴）</t>
-  </si>
-  <si>
-    <t>SPOT配信（かんたんに借入・返済</t>
-  </si>
-  <si>
-    <t>SPOT配信（できるだけおトクにかりたい）</t>
-  </si>
-  <si>
-    <t>SPOT配信（改修リマインドプッシュ）</t>
-  </si>
-  <si>
-    <t>SPOT配信(楽天メリット)</t>
-  </si>
-  <si>
-    <t>SPOT配信(給料日)</t>
-  </si>
-  <si>
-    <t>SPOT配信（現金CP）</t>
-  </si>
-  <si>
-    <t>SPOT配信（計画的な返済）</t>
-  </si>
-  <si>
-    <t>SPOT配信(再診断)</t>
-  </si>
-  <si>
-    <t>SPOT配信（在籍確認）</t>
-  </si>
-  <si>
-    <t>SPOT配信（審査に通過するか）</t>
-  </si>
-  <si>
-    <t>SPOT配信(審査優遇)</t>
-  </si>
-  <si>
-    <t>SPOT配信(申込ステップ)</t>
-  </si>
-  <si>
-    <t>SPOT配信（不安払拭４パターン）</t>
-  </si>
-  <si>
-    <t>SPOT配信（曜日プッシュ）</t>
-  </si>
-  <si>
-    <t>SPOT配信（利用限度額）</t>
-  </si>
-  <si>
-    <t>SPOT配信（衣替えプッシュ）</t>
-  </si>
-  <si>
-    <t>SPOT配信（現金CP_カウントダウン1日前</t>
-  </si>
-  <si>
-    <t>SPOT配信（現金CP_カウントダウン3日前）</t>
-  </si>
-  <si>
-    <t>SPOT配信（現金CP_カウントダウン7日前）</t>
-  </si>
-  <si>
-    <t>sglca</t>
-  </si>
-  <si>
-    <t>sglke</t>
-  </si>
-  <si>
-    <t>sgl3j</t>
-  </si>
-  <si>
-    <t>sglbt</t>
-  </si>
-  <si>
-    <t>sglsm</t>
-  </si>
-  <si>
-    <t>sgl25</t>
-  </si>
-  <si>
-    <t>sglc4</t>
-  </si>
-  <si>
-    <t>sgled</t>
-  </si>
-  <si>
-    <t>sgl3z</t>
-  </si>
-  <si>
-    <t>sgltb</t>
-  </si>
-  <si>
-    <t>sglbn</t>
-  </si>
-  <si>
-    <t>sglv0</t>
-  </si>
-  <si>
-    <t>sgla8</t>
-  </si>
-  <si>
-    <t>sglwa</t>
-  </si>
-  <si>
-    <t>sgl0a</t>
-  </si>
-  <si>
-    <t>sgl8e</t>
-  </si>
-  <si>
-    <t>sgltc</t>
-  </si>
-  <si>
-    <t>sgl5u</t>
-  </si>
-  <si>
-    <t>sgltn</t>
-  </si>
-  <si>
-    <t>sglws</t>
-  </si>
-  <si>
-    <t>sgl41</t>
-  </si>
-  <si>
-    <t>sglkt</t>
-  </si>
-  <si>
-    <t>sglg5</t>
-  </si>
-  <si>
-    <t>sglvd</t>
-  </si>
-  <si>
-    <t>sgl3q</t>
-  </si>
-  <si>
-    <t>sgl50</t>
-  </si>
-  <si>
-    <t>sgl21</t>
-  </si>
-  <si>
-    <t>sgl89</t>
-  </si>
-  <si>
-    <t>sgls9</t>
-  </si>
-  <si>
-    <t>sglr3</t>
-  </si>
-  <si>
-    <t>sglfh</t>
-  </si>
-  <si>
-    <t>sgl4z</t>
-  </si>
-  <si>
-    <t>sglft</t>
-  </si>
-  <si>
-    <t>sgliy</t>
-  </si>
-  <si>
-    <t>sglq7</t>
-  </si>
-  <si>
-    <t>sglge</t>
-  </si>
-  <si>
-    <t>sgl3a</t>
-  </si>
-  <si>
-    <t>sglhj</t>
-  </si>
-  <si>
-    <t>sglsh</t>
-  </si>
-  <si>
-    <t>sglr6</t>
-  </si>
-  <si>
-    <t>sglp6</t>
-  </si>
-  <si>
-    <t>sglts</t>
-  </si>
-  <si>
-    <t>sgl4j</t>
-  </si>
-  <si>
-    <t>sgl49</t>
-  </si>
-  <si>
-    <t>sglyx</t>
-  </si>
-  <si>
-    <t>sglv2</t>
-  </si>
-  <si>
-    <t>sgloi</t>
-  </si>
-  <si>
-    <t>sglqo</t>
-  </si>
-  <si>
-    <t>sgl7s</t>
-  </si>
-  <si>
-    <t>sgp89</t>
-  </si>
-  <si>
-    <t>sgput</t>
-  </si>
-  <si>
-    <t>sgpp9</t>
-  </si>
-  <si>
-    <t>sgpff</t>
-  </si>
-  <si>
-    <t>sgps2</t>
-  </si>
-  <si>
-    <t>sgpdu</t>
-  </si>
-  <si>
-    <t>sgphr</t>
-  </si>
-  <si>
-    <t>sgps9</t>
-  </si>
-  <si>
-    <t>sgpwm</t>
-  </si>
-  <si>
-    <t>sgp9z</t>
-  </si>
-  <si>
-    <t>sgp1q</t>
-  </si>
-  <si>
-    <t>sgpe1</t>
-  </si>
-  <si>
-    <t>sgpz8</t>
-  </si>
-  <si>
-    <t>sgppj</t>
-  </si>
-  <si>
-    <t>sgpze</t>
-  </si>
-  <si>
-    <t>sgp90</t>
-  </si>
-  <si>
-    <t>sgptz</t>
-  </si>
-  <si>
-    <t>sgpgq</t>
-  </si>
-  <si>
-    <t>sgpix</t>
-  </si>
-  <si>
-    <t>sgps1</t>
-  </si>
-  <si>
-    <t>sgp68</t>
-  </si>
-  <si>
-    <t>sgp79</t>
-  </si>
-  <si>
-    <t>sgp4f</t>
-  </si>
-  <si>
-    <t>sgptk</t>
-  </si>
-  <si>
-    <t>sgp6y</t>
-  </si>
-  <si>
-    <t>sgpea</t>
-  </si>
-  <si>
-    <t>sgpfq</t>
-  </si>
-  <si>
-    <t>sgpt7</t>
-  </si>
-  <si>
-    <t>sgpcu</t>
-  </si>
-  <si>
-    <t>sgpr2</t>
-  </si>
-  <si>
-    <t>sgprt</t>
-  </si>
-  <si>
-    <t>sgpd7</t>
-  </si>
-  <si>
-    <t>sgp8k</t>
-  </si>
-  <si>
-    <t>sgpbc</t>
-  </si>
-  <si>
-    <t>sgp4h</t>
-  </si>
-  <si>
-    <t>sgpzy</t>
-  </si>
-  <si>
-    <t>sgpzi</t>
-  </si>
-  <si>
-    <t>sgphc</t>
-  </si>
-  <si>
-    <t>sgpwn</t>
-  </si>
-  <si>
-    <t>sgpab</t>
-  </si>
-  <si>
-    <t>sgpai</t>
-  </si>
-  <si>
-    <t>sgpov</t>
-  </si>
-  <si>
-    <t>sgpo8</t>
-  </si>
-  <si>
-    <t>sgpq6</t>
-  </si>
-  <si>
-    <t>sgpxk</t>
-  </si>
-  <si>
-    <t>sgp3r</t>
-  </si>
-  <si>
-    <t>sgpdq</t>
-  </si>
-  <si>
-    <t>sgpce</t>
-  </si>
-  <si>
-    <t>sgp4k</t>
   </si>
 </sst>
 </file>
@@ -1574,9 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816F8E8-C22F-4E38-8E96-70A9C06BD1EB}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="A46:E94"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2352,835 +2353,835 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>162</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/媒体コードマスタ.xlsx
+++ b/媒体コードマスタ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-marika.a.kitahara\Desktop\python用\【Py】後方数値データ分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177E85B-7B5F-4103-9070-97C25E91BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A27339-1C9F-4B33-92D9-73F526960BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3768" windowWidth="17280" windowHeight="9912" xr2:uid="{D062F9A2-5310-406C-9C19-41F07FCA6DF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D062F9A2-5310-406C-9C19-41F07FCA6DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$94</definedName>
   </definedNames>
@@ -38,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="354">
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
@@ -1134,12 +1159,19 @@
     <t>Zeals</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>12月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,6 +1216,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1223,10 +1262,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1242,10 +1282,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{93192216-7D5F-4870-8546-D272CC270C2D}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1256,6 +1305,391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="12月プラン"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>旧媒体コード(11/6~)</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>新規媒体コード
+(12/22~)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>sxp1c</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>swpgk</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>sgp3a</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>swp59</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>sgpc3</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>swpgp</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6" t="str">
+            <v>sgpzr</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>swp8i</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7" t="str">
+            <v>sgptw</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>swp7p</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8" t="str">
+            <v>sgpfc</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>swpuh</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9" t="str">
+            <v>sgprv</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>swp0v</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10" t="str">
+            <v>sgptp</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>swprc</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11" t="str">
+            <v>sgphm</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>swpcp</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12" t="str">
+            <v>sgpw3</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>swpao</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13" t="str">
+            <v>sgp3q</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>swpq0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14" t="str">
+            <v>sgppd</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>swpnf</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15" t="str">
+            <v>sgpjr</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>swp09</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16" t="str">
+            <v>sgppr</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>swpt9</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17" t="str">
+            <v>sgpkn</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>swptk</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18" t="str">
+            <v>sgp6m</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>swpsp</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19" t="str">
+            <v>sgp64</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>swp9m</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20" t="str">
+            <v>sgpqi</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>swp5g</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21" t="str">
+            <v>sgpug</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>swpps</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22" t="str">
+            <v>sgptd</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>swpbb</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23" t="str">
+            <v>sgp49</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>swp8e</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24" t="str">
+            <v>sgpmo</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>swp90</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25" t="str">
+            <v>sgpg4</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>swpjr</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>sgphp</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>swpyz</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27" t="str">
+            <v>sgpi0</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>swp74</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28" t="str">
+            <v>sgp7n</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>swpmf</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29" t="str">
+            <v>sgp6e</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>swpzv</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30" t="str">
+            <v>sgpv1</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>swpxy</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31" t="str">
+            <v>sglao</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>swpvi</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>sgpwg</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>swpne</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33" t="str">
+            <v>swpj9</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="F34" t="str">
+            <v>swpad</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>sgpdg</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>swpj0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>sgp0q</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>swpq2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37" t="str">
+            <v>sgphn</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>swp96</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38" t="str">
+            <v>sgp4q</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>swpva</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39" t="str">
+            <v>sgp6r</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>swpay</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40" t="str">
+            <v>sgpx9</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>swpo3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41" t="str">
+            <v>sgp1w</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>swp4p</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42" t="str">
+            <v>sgpp1</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>swpwm</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43" t="str">
+            <v>sgpg9</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>swprd</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44" t="str">
+            <v>sgpdb</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>swpp0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45" t="str">
+            <v>sgp5e</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>swpdj</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47" t="str">
+            <v>sgpg5</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>swpjt</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48" t="str">
+            <v>sgpvc</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>swps3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,7 +2009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9816F8E8-C22F-4E38-8E96-70A9C06BD1EB}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,7 +2022,7 @@
     <col min="6" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1604,8 +2038,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>148</v>
       </c>
@@ -1621,8 +2058,12 @@
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="3" t="str" cm="1">
+        <f t="array" ref="F2">_xlfn.XLOOKUP(E2,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpgk</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
@@ -1638,8 +2079,12 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="3" t="str" cm="1">
+        <f t="array" ref="F3">_xlfn.XLOOKUP(E3,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -1655,8 +2100,12 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="3" t="str" cm="1">
+        <f t="array" ref="F4">_xlfn.XLOOKUP(E4,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpgp</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>151</v>
       </c>
@@ -1672,8 +2121,12 @@
       <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="3" t="str" cm="1">
+        <f t="array" ref="F5">_xlfn.XLOOKUP(E5,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp8i</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>152</v>
       </c>
@@ -1689,8 +2142,12 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="3" t="str" cm="1">
+        <f t="array" ref="F6">_xlfn.XLOOKUP(E6,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp7p</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>153</v>
       </c>
@@ -1706,8 +2163,12 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="3" t="str" cm="1">
+        <f t="array" ref="F7">_xlfn.XLOOKUP(E7,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpuh</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>154</v>
       </c>
@@ -1723,8 +2184,12 @@
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="3" t="str" cm="1">
+        <f t="array" ref="F8">_xlfn.XLOOKUP(E8,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp0v</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>155</v>
       </c>
@@ -1740,8 +2205,12 @@
       <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="3" t="str" cm="1">
+        <f t="array" ref="F9">_xlfn.XLOOKUP(E9,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swprc</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1757,8 +2226,12 @@
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="3" t="str" cm="1">
+        <f t="array" ref="F10">_xlfn.XLOOKUP(E10,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpcp</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>156</v>
       </c>
@@ -1774,8 +2247,12 @@
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="3" t="str" cm="1">
+        <f t="array" ref="F11">_xlfn.XLOOKUP(E11,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpao</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1791,8 +2268,12 @@
       <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" s="3" t="str" cm="1">
+        <f t="array" ref="F12">_xlfn.XLOOKUP(E12,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpq0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>157</v>
       </c>
@@ -1808,8 +2289,12 @@
       <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" s="3" t="str" cm="1">
+        <f t="array" ref="F13">_xlfn.XLOOKUP(E13,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpnf</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
@@ -1825,8 +2310,12 @@
       <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" s="3" t="str" cm="1">
+        <f t="array" ref="F14">_xlfn.XLOOKUP(E14,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>158</v>
       </c>
@@ -1842,8 +2331,12 @@
       <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" s="3" t="str" cm="1">
+        <f t="array" ref="F15">_xlfn.XLOOKUP(E15,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpt9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1859,8 +2352,12 @@
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="3" t="str" cm="1">
+        <f t="array" ref="F16">_xlfn.XLOOKUP(E16,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swptk</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -1876,8 +2373,12 @@
       <c r="E17" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="3" t="str" cm="1">
+        <f t="array" ref="F17">_xlfn.XLOOKUP(E17,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpsp</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -1893,8 +2394,12 @@
       <c r="E18" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="3" t="str" cm="1">
+        <f t="array" ref="F18">_xlfn.XLOOKUP(E18,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp9m</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1910,8 +2415,12 @@
       <c r="E19" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="3" t="str" cm="1">
+        <f t="array" ref="F19">_xlfn.XLOOKUP(E19,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp5g</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
@@ -1927,8 +2436,12 @@
       <c r="E20" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="3" t="str" cm="1">
+        <f t="array" ref="F20">_xlfn.XLOOKUP(E20,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpps</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>67</v>
       </c>
@@ -1944,8 +2457,12 @@
       <c r="E21" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="3" t="str" cm="1">
+        <f t="array" ref="F21">_xlfn.XLOOKUP(E21,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpbb</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>70</v>
       </c>
@@ -1961,8 +2478,12 @@
       <c r="E22" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="3" t="str" cm="1">
+        <f t="array" ref="F22">_xlfn.XLOOKUP(E22,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp8e</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -1978,8 +2499,12 @@
       <c r="E23" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="3" t="str" cm="1">
+        <f t="array" ref="F23">_xlfn.XLOOKUP(E23,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>76</v>
       </c>
@@ -1995,8 +2520,12 @@
       <c r="E24" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="3" t="str" cm="1">
+        <f t="array" ref="F24">_xlfn.XLOOKUP(E24,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpjr</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
@@ -2012,8 +2541,12 @@
       <c r="E25" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="3" t="str" cm="1">
+        <f t="array" ref="F25">_xlfn.XLOOKUP(E25,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpyz</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -2029,8 +2562,12 @@
       <c r="E26" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="3" t="str" cm="1">
+        <f t="array" ref="F26">_xlfn.XLOOKUP(E26,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>85</v>
       </c>
@@ -2046,8 +2583,12 @@
       <c r="E27" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="3" t="str" cm="1">
+        <f t="array" ref="F27">_xlfn.XLOOKUP(E27,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpmf</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -2063,8 +2604,12 @@
       <c r="E28" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="3" t="str" cm="1">
+        <f t="array" ref="F28">_xlfn.XLOOKUP(E28,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpzv</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
@@ -2080,8 +2625,12 @@
       <c r="E29" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="3" t="str" cm="1">
+        <f t="array" ref="F29">_xlfn.XLOOKUP(E29,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpxy</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>159</v>
       </c>
@@ -2095,8 +2644,12 @@
       <c r="E30" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="3" t="str" cm="1">
+        <f t="array" ref="F30">_xlfn.XLOOKUP(E30,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpvi</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
@@ -2112,8 +2665,12 @@
       <c r="E31" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="3" t="str" cm="1">
+        <f t="array" ref="F31">_xlfn.XLOOKUP(E31,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpne</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>100</v>
       </c>
@@ -2129,8 +2686,12 @@
       <c r="E32" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="3" t="str" cm="1">
+        <f t="array" ref="F32">_xlfn.XLOOKUP(E32,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpj0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -2146,8 +2707,12 @@
       <c r="E33" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="3" t="str" cm="1">
+        <f t="array" ref="F33">_xlfn.XLOOKUP(E33,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpq2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>108</v>
       </c>
@@ -2163,8 +2728,12 @@
       <c r="E34" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="3" t="str" cm="1">
+        <f t="array" ref="F34">_xlfn.XLOOKUP(E34,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>112</v>
       </c>
@@ -2180,8 +2749,12 @@
       <c r="E35" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="3" t="str" cm="1">
+        <f t="array" ref="F35">_xlfn.XLOOKUP(E35,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpva</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -2197,8 +2770,12 @@
       <c r="E36" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="3" t="str" cm="1">
+        <f t="array" ref="F36">_xlfn.XLOOKUP(E36,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpay</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>120</v>
       </c>
@@ -2214,8 +2791,12 @@
       <c r="E37" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="3" t="str" cm="1">
+        <f t="array" ref="F37">_xlfn.XLOOKUP(E37,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpo3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
@@ -2231,8 +2812,12 @@
       <c r="E38" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="3" t="str" cm="1">
+        <f t="array" ref="F38">_xlfn.XLOOKUP(E38,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swp4p</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>128</v>
       </c>
@@ -2248,8 +2833,12 @@
       <c r="E39" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="3" t="str" cm="1">
+        <f t="array" ref="F39">_xlfn.XLOOKUP(E39,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpwm</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>130</v>
       </c>
@@ -2265,8 +2854,12 @@
       <c r="E40" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F40" s="3" t="str" cm="1">
+        <f t="array" ref="F40">_xlfn.XLOOKUP(E40,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swprd</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>133</v>
       </c>
@@ -2282,8 +2875,12 @@
       <c r="E41" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F41" s="3" t="str" cm="1">
+        <f t="array" ref="F41">_xlfn.XLOOKUP(E41,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpp0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>136</v>
       </c>
@@ -2299,8 +2896,12 @@
       <c r="E42" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F42" s="3" t="str" cm="1">
+        <f t="array" ref="F42">_xlfn.XLOOKUP(E42,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpdj</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>139</v>
       </c>
@@ -2316,8 +2917,12 @@
       <c r="E43" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F43" s="3" cm="1">
+        <f t="array" ref="F43">_xlfn.XLOOKUP(E43,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>142</v>
       </c>
@@ -2333,8 +2938,12 @@
       <c r="E44" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F44" s="3" t="str" cm="1">
+        <f t="array" ref="F44">_xlfn.XLOOKUP(E44,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swpjt</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>145</v>
       </c>
@@ -2350,8 +2959,12 @@
       <c r="E45" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F45" s="3" t="str" cm="1">
+        <f t="array" ref="F45">_xlfn.XLOOKUP(E45,'[1]12月プラン'!$E:$E,'[1]12月プラン'!$F:F)</f>
+        <v>swps3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>209</v>
       </c>
@@ -2368,7 +2981,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>210</v>
       </c>
@@ -2385,7 +2998,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>211</v>
       </c>

--- a/媒体コードマスタ.xlsx
+++ b/媒体コードマスタ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-marika.a.kitahara\Desktop\python用\【Py】後方数値データ分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-marika.a.kitahara\Desktop\python用\【Py】後方数値データ分析デスクトップ版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A27339-1C9F-4B33-92D9-73F526960BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB77ACC-2A62-4C8E-8EBD-C0AA5610F633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D062F9A2-5310-406C-9C19-41F07FCA6DF9}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="403">
   <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
@@ -1165,6 +1165,153 @@
       <t>ガツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>swpbh</t>
+  </si>
+  <si>
+    <t>swpjs</t>
+  </si>
+  <si>
+    <t>swpau</t>
+  </si>
+  <si>
+    <t>swpzc</t>
+  </si>
+  <si>
+    <t>swp3f</t>
+  </si>
+  <si>
+    <t>swp6j</t>
+  </si>
+  <si>
+    <t>swpev</t>
+  </si>
+  <si>
+    <t>swpm9</t>
+  </si>
+  <si>
+    <t>swpq1</t>
+  </si>
+  <si>
+    <t>swpvx</t>
+  </si>
+  <si>
+    <t>swp2m</t>
+  </si>
+  <si>
+    <t>swpij</t>
+  </si>
+  <si>
+    <t>swp5d</t>
+  </si>
+  <si>
+    <t>swpzz</t>
+  </si>
+  <si>
+    <t>swpe1</t>
+  </si>
+  <si>
+    <t>swpn9</t>
+  </si>
+  <si>
+    <t>swpvj</t>
+  </si>
+  <si>
+    <t>swpwz</t>
+  </si>
+  <si>
+    <t>swpiz</t>
+  </si>
+  <si>
+    <t>swpgi</t>
+  </si>
+  <si>
+    <t>swpvp</t>
+  </si>
+  <si>
+    <t>swpjo</t>
+  </si>
+  <si>
+    <t>swpcg</t>
+  </si>
+  <si>
+    <t>swpo7</t>
+  </si>
+  <si>
+    <t>swpeh</t>
+  </si>
+  <si>
+    <t>swpnp</t>
+  </si>
+  <si>
+    <t>swppz</t>
+  </si>
+  <si>
+    <t>swpm6</t>
+  </si>
+  <si>
+    <t>swpor</t>
+  </si>
+  <si>
+    <t>swpku</t>
+  </si>
+  <si>
+    <t>swpo2</t>
+  </si>
+  <si>
+    <t>swpx3</t>
+  </si>
+  <si>
+    <t>swpdy</t>
+  </si>
+  <si>
+    <t>swpjj</t>
+  </si>
+  <si>
+    <t>swpyv</t>
+  </si>
+  <si>
+    <t>swpba</t>
+  </si>
+  <si>
+    <t>swpco</t>
+  </si>
+  <si>
+    <t>swpmv</t>
+  </si>
+  <si>
+    <t>swpaa</t>
+  </si>
+  <si>
+    <t>swp6m</t>
+  </si>
+  <si>
+    <t>swp0a</t>
+  </si>
+  <si>
+    <t>swpvo</t>
+  </si>
+  <si>
+    <t>swpj6</t>
+  </si>
+  <si>
+    <t>swpu5</t>
+  </si>
+  <si>
+    <t>swpzx</t>
+  </si>
+  <si>
+    <t>swpx0</t>
+  </si>
+  <si>
+    <t>swpz8</t>
+  </si>
+  <si>
+    <t>swphr</t>
+  </si>
+  <si>
+    <t>swp9o</t>
   </si>
 </sst>
 </file>
@@ -1286,15 +1433,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{93192216-7D5F-4870-8546-D272CC270C2D}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2980,6 +3119,9 @@
       <c r="E46" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="F46" s="3" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
@@ -2997,6 +3139,9 @@
       <c r="E47" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="F47" s="3" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
@@ -3014,8 +3159,11 @@
       <c r="E48" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F48" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>212</v>
       </c>
@@ -3031,8 +3179,11 @@
       <c r="E49" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F49" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>213</v>
       </c>
@@ -3048,8 +3199,11 @@
       <c r="E50" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F50" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>214</v>
       </c>
@@ -3065,8 +3219,11 @@
       <c r="E51" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F51" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>214</v>
       </c>
@@ -3082,8 +3239,11 @@
       <c r="E52" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F52" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>214</v>
       </c>
@@ -3099,8 +3259,11 @@
       <c r="E53" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F53" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>214</v>
       </c>
@@ -3116,8 +3279,11 @@
       <c r="E54" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F54" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>214</v>
       </c>
@@ -3133,8 +3299,11 @@
       <c r="E55" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F55" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>215</v>
       </c>
@@ -3150,8 +3319,11 @@
       <c r="E56" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F56" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>216</v>
       </c>
@@ -3167,8 +3339,11 @@
       <c r="E57" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F57" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>217</v>
       </c>
@@ -3184,8 +3359,11 @@
       <c r="E58" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F58" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>218</v>
       </c>
@@ -3201,8 +3379,11 @@
       <c r="E59" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F59" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>219</v>
       </c>
@@ -3218,8 +3399,11 @@
       <c r="E60" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>220</v>
       </c>
@@ -3235,8 +3419,11 @@
       <c r="E61" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F61" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>221</v>
       </c>
@@ -3252,8 +3439,11 @@
       <c r="E62" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F62" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>222</v>
       </c>
@@ -3269,8 +3459,11 @@
       <c r="E63" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F63" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>223</v>
       </c>
@@ -3286,8 +3479,11 @@
       <c r="E64" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F64" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>224</v>
       </c>
@@ -3303,8 +3499,11 @@
       <c r="E65" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>225</v>
       </c>
@@ -3320,8 +3519,11 @@
       <c r="E66" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F66" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>226</v>
       </c>
@@ -3337,8 +3539,11 @@
       <c r="E67" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F67" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>227</v>
       </c>
@@ -3354,8 +3559,11 @@
       <c r="E68" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F68" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>228</v>
       </c>
@@ -3371,8 +3579,11 @@
       <c r="E69" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F69" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>229</v>
       </c>
@@ -3388,8 +3599,11 @@
       <c r="E70" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F70" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>230</v>
       </c>
@@ -3405,8 +3619,11 @@
       <c r="E71" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F71" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>231</v>
       </c>
@@ -3422,8 +3639,11 @@
       <c r="E72" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F72" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>232</v>
       </c>
@@ -3439,8 +3659,11 @@
       <c r="E73" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F73" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>233</v>
       </c>
@@ -3456,8 +3679,11 @@
       <c r="E74" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F74" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>234</v>
       </c>
@@ -3473,8 +3699,11 @@
       <c r="E75" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F75" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>235</v>
       </c>
@@ -3490,8 +3719,11 @@
       <c r="E76" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F76" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>236</v>
       </c>
@@ -3507,8 +3739,11 @@
       <c r="E77" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F77" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>237</v>
       </c>
@@ -3524,8 +3759,11 @@
       <c r="E78" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F78" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>238</v>
       </c>
@@ -3541,8 +3779,11 @@
       <c r="E79" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F79" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>239</v>
       </c>
@@ -3558,8 +3799,11 @@
       <c r="E80" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F80" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>240</v>
       </c>
@@ -3575,8 +3819,11 @@
       <c r="E81" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F81" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>241</v>
       </c>
@@ -3592,8 +3839,11 @@
       <c r="E82" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F82" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>242</v>
       </c>
@@ -3609,8 +3859,11 @@
       <c r="E83" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F83" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>243</v>
       </c>
@@ -3626,8 +3879,11 @@
       <c r="E84" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F84" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>244</v>
       </c>
@@ -3643,8 +3899,11 @@
       <c r="E85" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F85" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>245</v>
       </c>
@@ -3660,8 +3919,11 @@
       <c r="E86" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F86" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>246</v>
       </c>
@@ -3677,8 +3939,11 @@
       <c r="E87" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F87" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>247</v>
       </c>
@@ -3694,8 +3959,11 @@
       <c r="E88" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F88" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>248</v>
       </c>
@@ -3711,8 +3979,11 @@
       <c r="E89" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F89" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>249</v>
       </c>
@@ -3728,8 +3999,11 @@
       <c r="E90" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F90" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>250</v>
       </c>
@@ -3745,8 +4019,11 @@
       <c r="E91" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F91" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>251</v>
       </c>
@@ -3762,8 +4039,11 @@
       <c r="E92" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F92" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>252</v>
       </c>
@@ -3779,8 +4059,11 @@
       <c r="E93" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F93" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>253</v>
       </c>
@@ -3795,6 +4078,9 @@
       </c>
       <c r="E94" s="3" t="s">
         <v>351</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
